--- a/data/trans_orig/P33B5_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33B5_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EA5F4C7-D0D8-4DFE-9D71-ED1995531A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5830CFED-9FBD-4845-A72E-333A89CF0EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FD1FA636-2B42-4024-B521-7A0E84C81834}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D6CA5FAE-CF1A-42FF-8A93-C9189DE10D04}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="218">
   <si>
     <t>Población que toma algún remedio para dormir (no medicamentos) en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -77,637 +77,616 @@
     <t>1,87%</t>
   </si>
   <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>A menudo (alguna vez a la semana)</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente (alguna vez al mes)</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
     <t>11,19%</t>
   </si>
   <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>A menudo (alguna vez a la semana)</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente (alguna vez al mes)</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
   </si>
   <si>
     <t>8,42%</t>
   </si>
   <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
   </si>
   <si>
     <t>7,87%</t>
   </si>
   <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>72,18%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
   </si>
   <si>
     <t>8,39%</t>
   </si>
   <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>82,59%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
     <t>86,31%</t>
   </si>
   <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
   </si>
   <si>
     <t>78,48%</t>
   </si>
   <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
+    <t>77,09%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
   </si>
   <si>
     <t>82,16%</t>
   </si>
   <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1122,7 +1101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6C3C26-8BDF-4DAB-9A10-F1BC96D3E840}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C5B8FD-30BB-445E-AC3F-F2FC1BE36A93}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1518,13 +1497,13 @@
         <v>66334</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>162</v>
@@ -1533,13 +1512,13 @@
         <v>100167</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1554,13 +1533,13 @@
         <v>6313</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -1569,13 +1548,13 @@
         <v>22891</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>53</v>
@@ -1584,13 +1563,13 @@
         <v>29204</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1605,13 +1584,13 @@
         <v>36434</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>114</v>
@@ -1620,13 +1599,13 @@
         <v>56550</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>160</v>
@@ -1635,13 +1614,13 @@
         <v>92985</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1656,13 +1635,13 @@
         <v>473243</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>716</v>
@@ -1671,13 +1650,13 @@
         <v>446780</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>1232</v>
@@ -1686,13 +1665,13 @@
         <v>920022</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1748,7 +1727,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1760,13 +1739,13 @@
         <v>45205</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="H14" s="7">
         <v>149</v>
@@ -1775,13 +1754,13 @@
         <v>92406</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>203</v>
@@ -1790,13 +1769,13 @@
         <v>137611</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1811,13 +1790,13 @@
         <v>15684</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -1826,13 +1805,13 @@
         <v>44318</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>92</v>
@@ -1841,13 +1820,13 @@
         <v>60003</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="P15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1862,13 +1841,13 @@
         <v>75870</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>190</v>
@@ -1877,13 +1856,13 @@
         <v>111626</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="M16" s="7">
         <v>277</v>
@@ -2035,10 +2014,10 @@
         <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>103</v>
@@ -2047,13 +2026,13 @@
         <v>84311</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2068,13 +2047,13 @@
         <v>18604</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H20" s="7">
         <v>52</v>
@@ -2083,13 +2062,13 @@
         <v>34333</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>72</v>
@@ -2098,13 +2077,13 @@
         <v>52937</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2119,13 +2098,13 @@
         <v>47272</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>142</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>81</v>
@@ -2134,13 +2113,13 @@
         <v>56234</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M21" s="7">
         <v>124</v>
@@ -2149,13 +2128,13 @@
         <v>103506</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2170,13 +2149,13 @@
         <v>633279</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>839</v>
@@ -2185,13 +2164,13 @@
         <v>726757</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>1421</v>
@@ -2200,13 +2179,13 @@
         <v>1360036</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2262,7 +2241,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2274,13 +2253,13 @@
         <v>61537</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H24" s="7">
         <v>171</v>
@@ -2289,13 +2268,13 @@
         <v>119979</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="M24" s="7">
         <v>244</v>
@@ -2304,13 +2283,13 @@
         <v>181516</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>165</v>
+        <v>59</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2325,13 +2304,13 @@
         <v>24489</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>168</v>
+        <v>27</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H25" s="7">
         <v>53</v>
@@ -2340,13 +2319,13 @@
         <v>33277</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>172</v>
+        <v>15</v>
       </c>
       <c r="M25" s="7">
         <v>82</v>
@@ -2355,13 +2334,13 @@
         <v>57767</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2376,13 +2355,13 @@
         <v>59562</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="H26" s="7">
         <v>159</v>
@@ -2391,13 +2370,13 @@
         <v>96545</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="M26" s="7">
         <v>229</v>
@@ -2406,13 +2385,13 @@
         <v>156107</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>182</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2427,13 +2406,13 @@
         <v>819815</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="H27" s="7">
         <v>1178</v>
@@ -2442,13 +2421,13 @@
         <v>897868</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="M27" s="7">
         <v>2012</v>
@@ -2457,13 +2436,13 @@
         <v>1717683</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,7 +2469,7 @@
         <v>1561</v>
       </c>
       <c r="I28" s="7">
-        <v>1147669</v>
+        <v>1147670</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
@@ -2531,13 +2510,13 @@
         <v>174036</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="H29" s="7">
         <v>533</v>
@@ -2546,13 +2525,13 @@
         <v>343355</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="M29" s="7">
         <v>736</v>
@@ -2561,13 +2540,13 @@
         <v>517391</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2582,13 +2561,13 @@
         <v>65441</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>96</v>
+        <v>194</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="H30" s="7">
         <v>230</v>
@@ -2597,13 +2576,13 @@
         <v>138223</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>205</v>
+        <v>140</v>
       </c>
       <c r="M30" s="7">
         <v>309</v>
@@ -2612,13 +2591,13 @@
         <v>203664</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2633,13 +2612,13 @@
         <v>223700</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>125</v>
+        <v>202</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="H31" s="7">
         <v>582</v>
@@ -2648,28 +2627,28 @@
         <v>336996</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>211</v>
+        <v>158</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="M31" s="7">
         <v>835</v>
       </c>
       <c r="N31" s="7">
-        <v>560695</v>
+        <v>560696</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2684,13 +2663,13 @@
         <v>2919903</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="H32" s="7">
         <v>4015</v>
@@ -2699,28 +2678,28 @@
         <v>2984948</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="M32" s="7">
         <v>6854</v>
       </c>
       <c r="N32" s="7">
-        <v>5904851</v>
+        <v>5904852</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2762,7 +2741,7 @@
         <v>8734</v>
       </c>
       <c r="N33" s="7">
-        <v>7186601</v>
+        <v>7186602</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -2776,7 +2755,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B5_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33B5_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5830CFED-9FBD-4845-A72E-333A89CF0EF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ABD780B-C754-473C-A8D5-CC96C7DF3599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D6CA5FAE-CF1A-42FF-8A93-C9189DE10D04}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{393CE5C7-824B-42D2-9839-B505E3AD9C8B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Diariamente o casi diariamente</t>
@@ -191,7 +191,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>6,15%</t>
@@ -302,7 +302,7 @@
     <t>82,45%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>4,35%</t>
@@ -404,7 +404,7 @@
     <t>83,39%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>3,92%</t>
@@ -1101,7 +1101,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59C5B8FD-30BB-445E-AC3F-F2FC1BE36A93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB276D23-BED2-4FE5-AAD9-1EFFDC6A6425}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P33B5_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33B5_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9ABD780B-C754-473C-A8D5-CC96C7DF3599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{653E43F4-95F7-418C-A77F-C2FC1DDA1C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{393CE5C7-824B-42D2-9839-B505E3AD9C8B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{51AD8F5B-61A7-40BC-81F0-146E4F873057}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="225">
   <si>
     <t>Población que toma algún remedio para dormir (no medicamentos) en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
@@ -77,25 +77,25 @@
     <t>1,87%</t>
   </si>
   <si>
-    <t>11,55%</t>
+    <t>11,19%</t>
   </si>
   <si>
     <t>6,79%</t>
   </si>
   <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
   </si>
   <si>
     <t>5,95%</t>
   </si>
   <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
   </si>
   <si>
     <t>A menudo (alguna vez a la semana)</t>
@@ -107,7 +107,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,86%</t>
+    <t>2,17%</t>
   </si>
   <si>
     <t>2,6%</t>
@@ -116,577 +116,598 @@
     <t>1,22%</t>
   </si>
   <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>Ocasionalmente (alguna vez al mes)</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
     <t>4,79%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>Ocasionalmente (alguna vez al mes)</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>72,18%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
   </si>
   <si>
     <t>6,44%</t>
   </si>
   <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>82,59%</t>
   </si>
   <si>
     <t>87,0%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>79,61%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>72,83%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>83,24%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
   </si>
   <si>
     <t>86,31%</t>
   </si>
   <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
   </si>
   <si>
     <t>78,48%</t>
   </si>
   <si>
-    <t>77,09%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
   </si>
   <si>
     <t>82,16%</t>
   </si>
   <si>
-    <t>81,3%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1101,7 +1122,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB276D23-BED2-4FE5-AAD9-1EFFDC6A6425}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CAE1902-1BF1-47AA-AA43-3C133C393BDF}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1497,13 +1518,13 @@
         <v>66334</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>162</v>
@@ -1512,13 +1533,13 @@
         <v>100167</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1533,13 +1554,13 @@
         <v>6313</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>43</v>
@@ -1548,13 +1569,13 @@
         <v>22891</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>53</v>
@@ -1563,13 +1584,13 @@
         <v>29204</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1584,13 +1605,13 @@
         <v>36434</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="H11" s="7">
         <v>114</v>
@@ -1599,13 +1620,13 @@
         <v>56550</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>160</v>
@@ -1614,13 +1635,13 @@
         <v>92985</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1635,13 +1656,13 @@
         <v>473243</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>716</v>
@@ -1650,13 +1671,13 @@
         <v>446780</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>1232</v>
@@ -1665,13 +1686,13 @@
         <v>920022</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1727,7 +1748,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1739,13 +1760,13 @@
         <v>45205</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="H14" s="7">
         <v>149</v>
@@ -1754,13 +1775,13 @@
         <v>92406</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>203</v>
@@ -1769,13 +1790,13 @@
         <v>137611</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1790,13 +1811,13 @@
         <v>15684</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -1805,13 +1826,13 @@
         <v>44318</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>92</v>
@@ -1820,13 +1841,13 @@
         <v>60003</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1841,13 +1862,13 @@
         <v>75870</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>190</v>
@@ -1856,13 +1877,13 @@
         <v>111626</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="M16" s="7">
         <v>277</v>
@@ -2014,10 +2035,10 @@
         <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>103</v>
@@ -2026,13 +2047,13 @@
         <v>84311</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2047,13 +2068,13 @@
         <v>18604</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>52</v>
@@ -2062,13 +2083,13 @@
         <v>34333</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>72</v>
@@ -2077,13 +2098,13 @@
         <v>52937</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2098,13 +2119,13 @@
         <v>47272</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="H21" s="7">
         <v>81</v>
@@ -2113,13 +2134,13 @@
         <v>56234</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M21" s="7">
         <v>124</v>
@@ -2128,13 +2149,13 @@
         <v>103506</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2149,13 +2170,13 @@
         <v>633279</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>839</v>
@@ -2164,13 +2185,13 @@
         <v>726757</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>1421</v>
@@ -2179,13 +2200,13 @@
         <v>1360036</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2241,7 +2262,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2253,13 +2274,13 @@
         <v>61537</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H24" s="7">
         <v>171</v>
@@ -2268,13 +2289,13 @@
         <v>119979</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="M24" s="7">
         <v>244</v>
@@ -2283,13 +2304,13 @@
         <v>181516</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>59</v>
+        <v>165</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2304,13 +2325,13 @@
         <v>24489</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="H25" s="7">
         <v>53</v>
@@ -2319,13 +2340,13 @@
         <v>33277</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c r="M25" s="7">
         <v>82</v>
@@ -2334,13 +2355,13 @@
         <v>57767</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,13 +2376,13 @@
         <v>59562</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="H26" s="7">
         <v>159</v>
@@ -2370,13 +2391,13 @@
         <v>96545</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>54</v>
+        <v>178</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="M26" s="7">
         <v>229</v>
@@ -2385,13 +2406,13 @@
         <v>156107</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2406,13 +2427,13 @@
         <v>819815</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="H27" s="7">
         <v>1178</v>
@@ -2421,13 +2442,13 @@
         <v>897868</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="M27" s="7">
         <v>2012</v>
@@ -2436,13 +2457,13 @@
         <v>1717683</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2469,7 +2490,7 @@
         <v>1561</v>
       </c>
       <c r="I28" s="7">
-        <v>1147670</v>
+        <v>1147669</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>50</v>
@@ -2510,13 +2531,13 @@
         <v>174036</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="H29" s="7">
         <v>533</v>
@@ -2525,13 +2546,13 @@
         <v>343355</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="M29" s="7">
         <v>736</v>
@@ -2540,13 +2561,13 @@
         <v>517391</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2561,13 +2582,13 @@
         <v>65441</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>194</v>
+        <v>96</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="H30" s="7">
         <v>230</v>
@@ -2576,13 +2597,13 @@
         <v>138223</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>140</v>
+        <v>205</v>
       </c>
       <c r="M30" s="7">
         <v>309</v>
@@ -2591,13 +2612,13 @@
         <v>203664</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2612,13 +2633,13 @@
         <v>223700</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>202</v>
+        <v>125</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="H31" s="7">
         <v>582</v>
@@ -2627,28 +2648,28 @@
         <v>336996</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>158</v>
+        <v>211</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="M31" s="7">
         <v>835</v>
       </c>
       <c r="N31" s="7">
-        <v>560696</v>
+        <v>560695</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2663,13 +2684,13 @@
         <v>2919903</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="H32" s="7">
         <v>4015</v>
@@ -2678,28 +2699,28 @@
         <v>2984948</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="M32" s="7">
         <v>6854</v>
       </c>
       <c r="N32" s="7">
-        <v>5904852</v>
+        <v>5904851</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2741,7 +2762,7 @@
         <v>8734</v>
       </c>
       <c r="N33" s="7">
-        <v>7186602</v>
+        <v>7186601</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>50</v>
@@ -2755,7 +2776,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P33B5_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33B5_2023-Habitat-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que toma algún remedio para dormir (no medicamentos) en 2023</t>
+          <t>Población según la frecuencia con la que toma algún remedio para dormir (no medicamentos) en 2023</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
